--- a/repositories/DLinear/notebooks/01.metrics.xlsx
+++ b/repositories/DLinear/notebooks/01.metrics.xlsx
@@ -511,12 +511,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.143</t>
+          <t>2.144</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.294</t>
+          <t>2.293</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.412</t>
+          <t>0.411</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -709,27 +709,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.372</t>
+          <t>0.377</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.394</t>
+          <t>0.400</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.610</t>
+          <t>0.614</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.859</t>
+          <t>8.870</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -747,27 +747,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.414</t>
+          <t>0.423</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.636</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.612</t>
+          <t>8.686</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -785,27 +785,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.434</t>
+          <t>0.453</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.435</t>
+          <t>0.452</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.659</t>
+          <t>0.673</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.585</t>
+          <t>8.893</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -823,27 +823,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.502</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.513</t>
+          <t>0.511</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.708</t>
+          <t>0.707</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9.536</t>
+          <t>9.647</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -922,27 +922,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.283</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.347</t>
+          <t>0.353</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.532</t>
+          <t>0.538</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.334</t>
+          <t>1.314</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -960,27 +960,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.362</t>
+          <t>0.368</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.403</t>
+          <t>0.407</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.602</t>
+          <t>0.606</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.379</t>
+          <t>1.381</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -998,27 +998,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.460</t>
+          <t>0.461</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.473</t>
+          <t>0.471</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.678</t>
+          <t>0.679</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.837</t>
+          <t>1.724</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.718</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.601</t>
+          <t>0.596</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>0.836</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.549</t>
+          <t>1.877</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.302</t>
+          <t>0.301</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.020</t>
+          <t>2.021</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.338</t>
+          <t>0.337</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1188,12 +1188,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.130</t>
+          <t>2.109</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.137</t>
+          <t>2.135</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.427</t>
+          <t>0.428</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.232</t>
+          <t>2.244</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.265</t>
+          <t>0.264</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.044</t>
+          <t>1.047</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.000</t>
+          <t>12.000</t>
         </is>
       </c>
     </row>
@@ -1462,12 +1462,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.169</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1485,27 +1485,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.160</t>
+          <t>0.159</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.298</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.400</t>
+          <t>0.398</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.611</t>
+          <t>1.641</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1523,27 +1523,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.313</t>
+          <t>0.328</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.424</t>
+          <t>0.434</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.560</t>
+          <t>0.572</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.147</t>
+          <t>2.104</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1561,27 +1561,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.898</t>
+          <t>0.950</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.725</t>
+          <t>0.745</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.947</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.153</t>
+          <t>2.037</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1660,27 +1660,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.315</t>
+          <t>2.273</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.064</t>
+          <t>1.047</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.521</t>
+          <t>1.507</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.730</t>
+          <t>3.735</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1698,27 +1698,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.357</t>
+          <t>2.328</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.069</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.535</t>
+          <t>1.526</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.600</t>
+          <t>3.494</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1736,27 +1736,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.308</t>
+          <t>2.314</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>1.084</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.519</t>
+          <t>1.521</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.939</t>
+          <t>2.951</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1774,27 +1774,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.388</t>
+          <t>2.396</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>1.107</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>1.548</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.697</t>
+          <t>2.711</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1873,27 +1873,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.177</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.243</t>
+          <t>0.242</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.422</t>
+          <t>0.421</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.832</t>
+          <t>9.811</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1911,27 +1911,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.217</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.279</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.465</t>
+          <t>0.468</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.441</t>
+          <t>10.364</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -1964,12 +1964,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11.136</t>
+          <t>11.167</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -2002,12 +2002,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.266</t>
+          <t>11.166</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
